--- a/ChangesCheck.xlsx
+++ b/ChangesCheck.xlsx
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -343,7 +351,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -410,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J24"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -717,82 +725,82 @@
     <col min="2" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="48"/>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="45" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>141709</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>857</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>432</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>98</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>60</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>71</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>55</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>86</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>49</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <f>SUM(B2:J2)</f>
         <v>143417</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>838</v>
       </c>
       <c r="C3" s="1">
@@ -816,19 +824,19 @@
       <c r="I3" s="1">
         <v>268</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>250</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f t="shared" ref="K3:K11" si="0">SUM(B3:J3)</f>
         <v>142218</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>364</v>
       </c>
       <c r="C4" s="1">
@@ -852,19 +860,19 @@
       <c r="I4" s="1">
         <v>548</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>453</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <f t="shared" si="0"/>
         <v>134822</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>160</v>
       </c>
       <c r="C5" s="2">
@@ -888,19 +896,19 @@
       <c r="I5" s="2">
         <v>1061</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>1414</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <f t="shared" si="0"/>
         <v>109078</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>50</v>
       </c>
       <c r="C6" s="1">
@@ -924,19 +932,20 @@
       <c r="I6" s="1">
         <v>5070</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>7070</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f t="shared" si="0"/>
         <v>96418</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="49" t="s">
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>34</v>
       </c>
       <c r="C7" s="1">
@@ -960,19 +969,19 @@
       <c r="I7" s="1">
         <v>3764</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>5339</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f t="shared" si="0"/>
         <v>94476</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>27</v>
       </c>
       <c r="C8" s="1">
@@ -996,19 +1005,19 @@
       <c r="I8" s="1">
         <v>3711</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>4318</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <f t="shared" si="0"/>
         <v>66365</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>22</v>
       </c>
       <c r="C9" s="1">
@@ -1032,19 +1041,19 @@
       <c r="I9" s="1">
         <v>34083</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>2641</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <f t="shared" si="0"/>
         <v>45687</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>29</v>
       </c>
       <c r="C10" s="3">
@@ -1068,560 +1077,560 @@
       <c r="I10" s="3">
         <v>8382</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>93208</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>123864</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>200</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>499</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>1024</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>913</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>3049</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>1156</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>3604</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>3530</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>2723</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>16698</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>SUM(B2:B11)</f>
         <v>143433</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f t="shared" ref="C12:J12" si="1">SUM(C2:C11)</f>
         <v>141152</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>134573</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="1"/>
         <v>108746</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
         <v>97914</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>93843</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="1"/>
         <v>75414</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>60503</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>117465</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <f>SUM(B2:J11)</f>
         <v>973043</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="10.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="10.5" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <f>IFERROR(B2/$K2,0)</f>
         <v>0.98809067265386952</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <f>IFERROR(C2/$K2,0)</f>
         <v>5.9755816953359787E-3</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <f t="shared" ref="D15:J15" si="2">IFERROR(D2/$K2,0)</f>
         <v>3.0121952069838303E-3</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f t="shared" si="2"/>
         <v>6.8332206084355414E-4</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <f t="shared" si="2"/>
         <v>4.1836044541442089E-4</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <f t="shared" si="2"/>
         <v>4.9505986040706466E-4</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <f t="shared" si="2"/>
         <v>3.8349707496321912E-4</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f t="shared" si="2"/>
         <v>5.9964997176066993E-4</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <f t="shared" si="2"/>
         <v>3.4166103042177707E-4</v>
       </c>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="27" t="s">
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <f t="shared" ref="B16:J16" si="3">IFERROR(B3/$K3,0)</f>
         <v>5.8923624295096257E-3</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <f t="shared" si="3"/>
         <v>0.92564935521523295</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f t="shared" si="3"/>
         <v>4.2252035607307094E-2</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f t="shared" si="3"/>
         <v>6.5322251754348958E-3</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <f t="shared" si="3"/>
         <v>6.4337847529848538E-3</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="31">
         <f t="shared" si="3"/>
         <v>6.7853576903064306E-3</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <f t="shared" si="3"/>
         <v>2.8125834985726138E-3</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <f t="shared" si="3"/>
         <v>1.8844309440436513E-3</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <f t="shared" si="3"/>
         <v>1.7578646866078837E-3</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <f t="shared" ref="B17:J17" si="4">IFERROR(B4/$K4,0)</f>
         <v>2.6998561065701442E-3</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <f t="shared" si="4"/>
         <v>2.4639895566005546E-2</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <f t="shared" si="4"/>
         <v>0.89030721988992889</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f t="shared" si="4"/>
         <v>2.1628517600985001E-2</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <f t="shared" si="4"/>
         <v>2.9609410927000045E-2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f t="shared" si="4"/>
         <v>1.1793327498479477E-2</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <f t="shared" si="4"/>
         <v>1.1897168117962945E-2</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <f t="shared" si="4"/>
         <v>4.0646185340671402E-3</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <f t="shared" si="4"/>
         <v>3.3599857590007566E-3</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <f t="shared" ref="B18:J18" si="5">IFERROR(B5/$K5,0)</f>
         <v>1.4668402427620601E-3</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <f t="shared" si="5"/>
         <v>5.7023414437375091E-3</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <f t="shared" si="5"/>
         <v>1.5255138524725426E-2</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <f t="shared" si="5"/>
         <v>0.87470434001356823</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <f t="shared" si="5"/>
         <v>3.4874126771667978E-2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <f t="shared" si="5"/>
         <v>2.9639340655310879E-2</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <f t="shared" si="5"/>
         <v>1.5667687343002255E-2</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <f t="shared" si="5"/>
         <v>9.7269843598159107E-3</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <f t="shared" si="5"/>
         <v>1.2963200645409706E-2</v>
       </c>
-      <c r="K18" s="41"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="shared" ref="B19:J19" si="6">IFERROR(B6/$K6,0)</f>
         <v>5.1857536974423866E-4</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <f t="shared" si="6"/>
         <v>1.979920761683503E-2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <f t="shared" si="6"/>
         <v>2.0867472878508164E-2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f t="shared" si="6"/>
         <v>2.2226140347238067E-2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f t="shared" si="6"/>
         <v>0.75380115746022525</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <f t="shared" si="6"/>
         <v>1.255989545520546E-2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <f t="shared" si="6"/>
         <v>4.4317451098342633E-2</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <f t="shared" si="6"/>
         <v>5.2583542492065795E-2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <f t="shared" si="6"/>
         <v>7.3326557281835347E-2</v>
       </c>
-      <c r="K19" s="41"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <f t="shared" ref="B20:J20" si="7">IFERROR(B7/$K7,0)</f>
         <v>3.5987975782209237E-4</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <f t="shared" si="7"/>
         <v>1.0584698759473305E-2</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <f t="shared" si="7"/>
         <v>1.229941995850798E-2</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <f t="shared" si="7"/>
         <v>2.1688047758160803E-2</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f t="shared" si="7"/>
         <v>1.0013125026461747E-2</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f t="shared" si="7"/>
         <v>0.82110800626614167</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <f t="shared" si="7"/>
         <v>2.7594309665946906E-2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <f t="shared" si="7"/>
         <v>3.9840806130657519E-2</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="32">
         <f t="shared" si="7"/>
         <v>5.6511706676827977E-2</v>
       </c>
-      <c r="K20" s="41"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <f t="shared" ref="B21:J21" si="8">IFERROR(B8/$K8,0)</f>
         <v>4.0684095532283581E-4</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <f t="shared" si="8"/>
         <v>4.6560687109168993E-3</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <f t="shared" si="8"/>
         <v>1.3666842462141188E-2</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <f t="shared" si="8"/>
         <v>1.5294206283432532E-2</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f t="shared" si="8"/>
         <v>3.8921118059217961E-2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <f t="shared" si="8"/>
         <v>1.808182023657048E-2</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <f t="shared" si="8"/>
         <v>0.78799065772621113</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <f t="shared" si="8"/>
         <v>5.5918029081594212E-2</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <f t="shared" si="8"/>
         <v>6.5064416484592782E-2</v>
       </c>
-      <c r="K21" s="41"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="30">
         <f t="shared" ref="B22:J22" si="9">IFERROR(B9/$K9,0)</f>
         <v>4.8153741764615755E-4</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <f t="shared" si="9"/>
         <v>6.1067699783308163E-3</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <f t="shared" si="9"/>
         <v>1.0790815768161622E-2</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f t="shared" si="9"/>
         <v>2.1472191214130933E-2</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f t="shared" si="9"/>
         <v>4.8219405957931137E-2</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <f t="shared" si="9"/>
         <v>4.2900606299384948E-2</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <f t="shared" si="9"/>
         <v>6.6211394926346659E-2</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <f t="shared" si="9"/>
         <v>0.7460109002560904</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="32">
         <f t="shared" si="9"/>
         <v>5.7806378181977369E-2</v>
       </c>
-      <c r="K22" s="41"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <f t="shared" ref="B23:J23" si="10">IFERROR(B10/$K10,0)</f>
         <v>2.3412775301944068E-4</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <f t="shared" si="10"/>
         <v>5.7401666343731839E-3</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <f t="shared" si="10"/>
         <v>6.7574113543886847E-3</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <f t="shared" si="10"/>
         <v>1.8496092488535815E-2</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <f t="shared" si="10"/>
         <v>6.2019634437770456E-2</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <f t="shared" si="10"/>
         <v>3.941419621520377E-2</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <f t="shared" si="10"/>
         <v>4.7164632177226634E-2</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <f t="shared" si="10"/>
         <v>6.7670993993412129E-2</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <f t="shared" si="10"/>
         <v>0.75250274494606983</v>
       </c>
-      <c r="K23" s="41"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <f t="shared" ref="B24:J24" si="11">IFERROR(B11/$K11,0)</f>
         <v>1.1977482333213559E-2</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <f t="shared" si="11"/>
         <v>2.9883818421367829E-2</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <f t="shared" si="11"/>
         <v>6.1324709546053423E-2</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="37">
         <f t="shared" si="11"/>
         <v>5.4677206851119896E-2</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <f t="shared" si="11"/>
         <v>0.18259671816984069</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <f t="shared" si="11"/>
         <v>6.9229847885974374E-2</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <f t="shared" si="11"/>
         <v>0.21583423164450832</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <f t="shared" si="11"/>
         <v>0.21140256318121931</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="38">
         <f t="shared" si="11"/>
         <v>0.1630734219667026</v>
       </c>
-      <c r="K24" s="41"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
@@ -1651,15 +1660,15 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="32" spans="1:11">
       <c r="I32" t="s">
